--- a/TsundokuCollection.xlsx
+++ b/TsundokuCollection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -78,6 +78,24 @@
 Raika Suzumi
 Mikaduchi
 Ree</t>
+  </si>
+  <si>
+    <t>HEART GEAR</t>
+  </si>
+  <si>
+    <t>Tsuyoshi Takaki</t>
+  </si>
+  <si>
+    <t>Bleach</t>
+  </si>
+  <si>
+    <t>Tite Kubo</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Eiichirou Oda</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -516,7 +534,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>47</v>
@@ -539,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -547,6 +565,69 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>999</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TsundokuCollection.xlsx
+++ b/TsundokuCollection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>Title</t>
   </si>
@@ -37,65 +37,854 @@
     <t>Staff</t>
   </si>
   <si>
-    <t>Naruto</t>
+    <t>100万の命の上に俺は立っている</t>
   </si>
   <si>
     <t>Manga</t>
   </si>
   <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>晃徳奈央
+山川直輝</t>
+  </si>
+  <si>
+    <t>86―エイティシックス―</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>安里アサト
+しらび
+吉原基貴</t>
+  </si>
+  <si>
+    <t>BEASTARS</t>
+  </si>
+  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>This deployment model has been available since .NET Core 3.0 and has been enhanced in .NET 5. Previously in .NET Core 3.0, when a user runs your single file app, .NET Core host first extracts all files to a directory before running the application. .NET 5 improves this experience by directly running the code without the need to extract the files from the app.
-The size of the single file in a self-contained application is large since it includes the runtime and the framework libraries. In .NET 6, you can publish trimmed to reduce the total size of trim-compatible applications. The single file deployment option can be combined with ReadyToRun and Trim publish options.</t>
-  </si>
-  <si>
-    <t>Masashi Kishimoto</t>
-  </si>
-  <si>
-    <t>Lycoris Recoil Koushiki Comic Anthology: Repeat</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Atto
-Miki Morinaga
-Takeshi Kojima
-Tiv
-Nachi Aono
-Ren Sakuragi
-Itsuki Takano
-Ginmoku
-Kanari Abe
-GUNP
-Nikomi Wakadori
-sometime
-Ryou Niina
-Mekimeki
-Sou Hamayumiba
- Nyoijizai 
-Raika Suzumi
-Mikaduchi
-Ree</t>
+    <t>板垣巴留</t>
+  </si>
+  <si>
+    <t>BIRDMEN -バードメン-</t>
+  </si>
+  <si>
+    <t>田辺イエロウ</t>
+  </si>
+  <si>
+    <t>BLACK BIRD</t>
+  </si>
+  <si>
+    <t>桜小路かのこ</t>
+  </si>
+  <si>
+    <t>BLACK TORCH</t>
+  </si>
+  <si>
+    <t>タカキツヨシ</t>
+  </si>
+  <si>
+    <t>BLEACH</t>
+  </si>
+  <si>
+    <t>久保帯人</t>
+  </si>
+  <si>
+    <t>DEATH NOTE</t>
+  </si>
+  <si>
+    <t>小畑健
+大場つぐみ</t>
   </si>
   <si>
     <t>HEART GEAR</t>
   </si>
   <si>
-    <t>Tsuyoshi Takaki</t>
-  </si>
-  <si>
-    <t>Bleach</t>
-  </si>
-  <si>
-    <t>Tite Kubo</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Eiichirou Oda</t>
+    <t>HUNTER×HUNTER</t>
+  </si>
+  <si>
+    <t>冨樫義博</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>浦沢直樹</t>
+  </si>
+  <si>
+    <t>NARUTO -ナルト-</t>
+  </si>
+  <si>
+    <t>岸本斉史</t>
+  </si>
+  <si>
+    <t>ONE PIECE</t>
+  </si>
+  <si>
+    <t>尾田栄一郎</t>
+  </si>
+  <si>
+    <t>SPY×FAMILY</t>
+  </si>
+  <si>
+    <t>遠藤達哉</t>
+  </si>
+  <si>
+    <t>Veil</t>
+  </si>
+  <si>
+    <t>フクダイクミ</t>
+  </si>
+  <si>
+    <t>ZETMAN-ゼットマン</t>
+  </si>
+  <si>
+    <t>桂正和</t>
+  </si>
+  <si>
+    <t>アオのハコ</t>
+  </si>
+  <si>
+    <t>三浦糀</t>
+  </si>
+  <si>
+    <t>あせとせっけん</t>
+  </si>
+  <si>
+    <t>山田金鉄</t>
+  </si>
+  <si>
+    <t>ヴァンパイア騎士 (ナイト)</t>
+  </si>
+  <si>
+    <t>樋野まつり</t>
+  </si>
+  <si>
+    <t>ウィッチクラフトワークス</t>
+  </si>
+  <si>
+    <t>水薙竜</t>
+  </si>
+  <si>
+    <t>ウルフガイ -狼の紋章-</t>
+  </si>
+  <si>
+    <t>田畑由秋
+余湖裕輝</t>
+  </si>
+  <si>
+    <t>エア・ギア</t>
+  </si>
+  <si>
+    <t>大暮維人</t>
+  </si>
+  <si>
+    <t>オーバーロード</t>
+  </si>
+  <si>
+    <t>深山フギン
+丸山くがね
+so-bin</t>
+  </si>
+  <si>
+    <t>オッドタクシー</t>
+  </si>
+  <si>
+    <t>肋家竹一
+此元和津也</t>
+  </si>
+  <si>
+    <t>オットマン-OTTOMAN-</t>
+  </si>
+  <si>
+    <t>金沢真之介</t>
+  </si>
+  <si>
+    <t>ガチアクタ</t>
+  </si>
+  <si>
+    <t>裏那圭</t>
+  </si>
+  <si>
+    <t>ガン×クローバー</t>
+  </si>
+  <si>
+    <t>ディー・ピー
+山口ミコト</t>
+  </si>
+  <si>
+    <t>ギルティクラウン</t>
+  </si>
+  <si>
+    <t>満月シオン
+宮城陽亮</t>
+  </si>
+  <si>
+    <t>グラップラー刃牙</t>
+  </si>
+  <si>
+    <t>板垣恵介</t>
+  </si>
+  <si>
+    <t>クレバテス-魔獣の王と赤子と屍の勇者-</t>
+  </si>
+  <si>
+    <t>岩原裕二</t>
+  </si>
+  <si>
+    <t>ケンガンアシュラ</t>
+  </si>
+  <si>
+    <t>Includes volume 0</t>
+  </si>
+  <si>
+    <t>だろめおん
+サンドロビッチ・ヤバ子</t>
+  </si>
+  <si>
+    <t>シャドーハウス</t>
+  </si>
+  <si>
+    <t>ソウマトウ</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 ジョジョリオン</t>
+  </si>
+  <si>
+    <t>荒木飛呂彦</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 スティール・ボール・ラン</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 ストーンオーシャン</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 ダイヤモンドは砕けない</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 ファントムブラッド</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 戦闘潮流</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 黄金の風</t>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険スターダストクルセイダース</t>
+  </si>
+  <si>
+    <t>スノウボールアース</t>
+  </si>
+  <si>
+    <t>辻次夕日郎</t>
+  </si>
+  <si>
+    <t>セキレイ</t>
+  </si>
+  <si>
+    <t>極楽院櫻子</t>
+  </si>
+  <si>
+    <t>そうだ、売国しよう〜天才王子の赤字国家再生術〜</t>
+  </si>
+  <si>
+    <t>ファルまろ
+鳥羽徹
+えむだ</t>
+  </si>
+  <si>
+    <t>その着せ替え人形は恋をする</t>
+  </si>
+  <si>
+    <t>福田晋一</t>
+  </si>
+  <si>
+    <t>ダーリン・イン・ザ・フランキス</t>
+  </si>
+  <si>
+    <t>矢吹健太朗</t>
+  </si>
+  <si>
+    <t>タコピーの原罪</t>
+  </si>
+  <si>
+    <t>タイザン5</t>
+  </si>
+  <si>
+    <t>ダンス イン ザ ヴァンパイアバンド エイジ オブ スカーレット オーダー</t>
+  </si>
+  <si>
+    <t>環望</t>
+  </si>
+  <si>
+    <t>ダンスインザヴァンパイアバンド</t>
+  </si>
+  <si>
+    <t>ダンダダン</t>
+  </si>
+  <si>
+    <t>龍幸伸</t>
+  </si>
+  <si>
+    <t>つぐもも</t>
+  </si>
+  <si>
+    <t>Count includes Vol 18.5</t>
+  </si>
+  <si>
+    <t>浜田よしかづ</t>
+  </si>
+  <si>
+    <t>ディー・グレイマン</t>
+  </si>
+  <si>
+    <t>星野桂</t>
+  </si>
+  <si>
+    <t>とつくにの少女</t>
+  </si>
+  <si>
+    <t>ながべ</t>
+  </si>
+  <si>
+    <t>となりの怪物くん</t>
+  </si>
+  <si>
+    <t>ろびこ</t>
+  </si>
+  <si>
+    <t>ドラゴンボール</t>
+  </si>
+  <si>
+    <t>鳥山明</t>
+  </si>
+  <si>
+    <t>ドラゴンボール超</t>
+  </si>
+  <si>
+    <t>鳥山明
+とよたろう</t>
+  </si>
+  <si>
+    <t>ドロンドロロン</t>
+  </si>
+  <si>
+    <t>大須賀玄</t>
+  </si>
+  <si>
+    <t>ニューノーマル</t>
+  </si>
+  <si>
+    <t>相原瑛人</t>
+  </si>
+  <si>
+    <t>ハイキュー！！</t>
+  </si>
+  <si>
+    <t>古舘春一</t>
+  </si>
+  <si>
+    <t>バキ</t>
+  </si>
+  <si>
+    <t>バキ道</t>
+  </si>
+  <si>
+    <t>バッカーノ！</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Hiatus</t>
+  </si>
+  <si>
+    <t>成田良悟
+エナミカツミ</t>
+  </si>
+  <si>
+    <t>ブラッククローバー</t>
+  </si>
+  <si>
+    <t>Volumes 3,</t>
+  </si>
+  <si>
+    <t>田畠裕基</t>
+  </si>
+  <si>
+    <t>フリージング</t>
+  </si>
+  <si>
+    <t>임달영
+김광현</t>
+  </si>
+  <si>
+    <t>フリージング　ファーストクロニクル</t>
+  </si>
+  <si>
+    <t>윤재호
+임달영</t>
+  </si>
+  <si>
+    <t>フリージングZERO</t>
+  </si>
+  <si>
+    <t>임달영
+정수철</t>
+  </si>
+  <si>
+    <t>べるぜバブ</t>
+  </si>
+  <si>
+    <t>Current set yellowed</t>
+  </si>
+  <si>
+    <t>田村隆平</t>
+  </si>
+  <si>
+    <t>ぼくらの</t>
+  </si>
+  <si>
+    <t>鬼頭莫宏</t>
+  </si>
+  <si>
+    <t>マギ</t>
+  </si>
+  <si>
+    <t>大高忍</t>
+  </si>
+  <si>
+    <t>マギ シンドバッドの冒険</t>
+  </si>
+  <si>
+    <t>大高忍
+大寺義史</t>
+  </si>
+  <si>
+    <t>メイドさんは食べるだけ</t>
+  </si>
+  <si>
+    <t>前屋進</t>
+  </si>
+  <si>
+    <t>やんちゃギャルの安城さん</t>
+  </si>
+  <si>
+    <t>加藤雄一</t>
+  </si>
+  <si>
+    <t>よふかしのうた</t>
+  </si>
+  <si>
+    <t>Includes character book</t>
+  </si>
+  <si>
+    <t>コトヤマ</t>
+  </si>
+  <si>
+    <t>ラーゼフォン</t>
+  </si>
+  <si>
+    <t>Includes additional novel seperate from series</t>
+  </si>
+  <si>
+    <t>大野木寛
+山田章博</t>
+  </si>
+  <si>
+    <t>ルリドラゴン</t>
+  </si>
+  <si>
+    <t>眞藤雅興</t>
+  </si>
+  <si>
+    <t>ロザリオとバンパイア</t>
+  </si>
+  <si>
+    <t>池田晃久</t>
+  </si>
+  <si>
+    <t>ワールドトリガー</t>
+  </si>
+  <si>
+    <t>葦原大介</t>
+  </si>
+  <si>
+    <t>ヲタクに恋は難しい</t>
+  </si>
+  <si>
+    <t>ふじた</t>
+  </si>
+  <si>
+    <t>三大陸英雄記</t>
+  </si>
+  <si>
+    <t>桜木桜
+柴乃櫂人
+神谷ユウ</t>
+  </si>
+  <si>
+    <t>世界最強の後衛　～迷宮国の新人探索者～</t>
+  </si>
+  <si>
+    <t>力蔵
+風花風花
+朱月十話</t>
+  </si>
+  <si>
+    <t>亜人ちゃんは語りたい</t>
+  </si>
+  <si>
+    <t>ペトス</t>
+  </si>
+  <si>
+    <t>人類を滅亡させてはいけません</t>
+  </si>
+  <si>
+    <t>高畑弓
+蒲夕二</t>
+  </si>
+  <si>
+    <t>会長はメイド様！</t>
+  </si>
+  <si>
+    <t>藤原ヒロ</t>
+  </si>
+  <si>
+    <t>会長はメイド様！マリアージュ</t>
+  </si>
+  <si>
+    <t>僕のヒーローアカデミア</t>
+  </si>
+  <si>
+    <t>堀越耕平</t>
+  </si>
+  <si>
+    <t>八月九日 僕は君に喰われる</t>
+  </si>
+  <si>
+    <t>tomomi</t>
+  </si>
+  <si>
+    <t>刃牙道</t>
+  </si>
+  <si>
+    <t>夜桜さんちの大作戦</t>
+  </si>
+  <si>
+    <t>権平ひつじ</t>
+  </si>
+  <si>
+    <t>天元突破グレンラガン</t>
+  </si>
+  <si>
+    <t>中島かずき
+森小太郎</t>
+  </si>
+  <si>
+    <t>女子高生と聖職者さん</t>
+  </si>
+  <si>
+    <t>財政ろろ</t>
+  </si>
+  <si>
+    <t>実は私は</t>
+  </si>
+  <si>
+    <t>増田英二</t>
+  </si>
+  <si>
+    <t>家庭教師ヒットマンREBORN!</t>
+  </si>
+  <si>
+    <t>天野明</t>
+  </si>
+  <si>
+    <t>峠鬼</t>
+  </si>
+  <si>
+    <t>鶴淵けんじ</t>
+  </si>
+  <si>
+    <t>幽☆遊☆白書</t>
+  </si>
+  <si>
+    <t>怪物事変</t>
+  </si>
+  <si>
+    <t>藍本松</t>
+  </si>
+  <si>
+    <t>怪獣８号</t>
+  </si>
+  <si>
+    <t>松本直也</t>
+  </si>
+  <si>
+    <t>怪異と乙女と神隠し</t>
+  </si>
+  <si>
+    <t>ぬじま</t>
+  </si>
+  <si>
+    <t>戦隊大失格</t>
+  </si>
+  <si>
+    <t>春場ねぎ</t>
+  </si>
+  <si>
+    <t>月が導く異世界道中</t>
+  </si>
+  <si>
+    <t>あずみ圭
+木野コトラ
+マツモトミツアキ</t>
+  </si>
+  <si>
+    <t>杖と剣のウィストリア</t>
+  </si>
+  <si>
+    <t>大森藤ノ
+青井聖</t>
+  </si>
+  <si>
+    <t>異世界おじさん</t>
+  </si>
+  <si>
+    <t>殆ど死んでいる</t>
+  </si>
+  <si>
+    <t>異世界不倫～魔王討伐から十年、妻とはレスの元勇者と、夫を亡くした女戦士～</t>
+  </si>
+  <si>
+    <t>大井昌和
+いのまる</t>
+  </si>
+  <si>
+    <t>異世界帰りの勇者が現代最強!</t>
+  </si>
+  <si>
+    <t>白石新
+さめだ小判
+たかやKi</t>
+  </si>
+  <si>
+    <t>異世界迷宮でハーレムを</t>
+  </si>
+  <si>
+    <t>蘇我捨恥
+氷樹一世
+四季童子</t>
+  </si>
+  <si>
+    <t>異種族レビュアーズ</t>
+  </si>
+  <si>
+    <t>masha
+天原</t>
+  </si>
+  <si>
+    <t>神無き世界のカミサマ活動</t>
+  </si>
+  <si>
+    <t>朱白あおい
+半月板損傷</t>
+  </si>
+  <si>
+    <t>空挺ドラゴンズ</t>
+  </si>
+  <si>
+    <t>桑原太矩</t>
+  </si>
+  <si>
+    <t>範馬刃牙</t>
+  </si>
+  <si>
+    <t>終末のハーレム ファンタジア</t>
+  </si>
+  <si>
+    <t>LINK
+SAVAN</t>
+  </si>
+  <si>
+    <t>葬送のフリーレン</t>
+  </si>
+  <si>
+    <t>山田鐘人
+アベツカサ</t>
+  </si>
+  <si>
+    <t>赤髪の白雪姫</t>
+  </si>
+  <si>
+    <t>あきづき空太</t>
+  </si>
+  <si>
+    <t>超人Ｘ</t>
+  </si>
+  <si>
+    <t>石田スイ</t>
+  </si>
+  <si>
+    <t>転生したらスライムだった件</t>
+  </si>
+  <si>
+    <t>伏瀬
+川上泰樹
+みっつばー</t>
+  </si>
+  <si>
+    <t>迷宮ブラックカンパニー</t>
+  </si>
+  <si>
+    <t>安村洋平</t>
+  </si>
+  <si>
+    <t>遊☆戯☆王</t>
+  </si>
+  <si>
+    <t>高橋和希</t>
+  </si>
+  <si>
+    <t>遊☆戯☆王GX</t>
+  </si>
+  <si>
+    <t>高橋和希
+影山なおゆき</t>
+  </si>
+  <si>
+    <t>遊☆戯☆王R</t>
+  </si>
+  <si>
+    <t>高橋和希
+伊藤彰</t>
+  </si>
+  <si>
+    <t>鋼の錬金術師</t>
+  </si>
+  <si>
+    <t>荒川弘</t>
+  </si>
+  <si>
+    <t>鍛冶屋ではじめる異世界スローライフ</t>
+  </si>
+  <si>
+    <t>たままる
+キンタ
+日森よしの</t>
+  </si>
+  <si>
+    <t>鬼人幻燈抄</t>
+  </si>
+  <si>
+    <t>里見有
+中西モトオ</t>
+  </si>
+  <si>
+    <t>魔法使いの嫁</t>
+  </si>
+  <si>
+    <t>ヤマザキコレ</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 スティープルチェース編</t>
+  </si>
+  <si>
+    <t>佐島勤
+蒼和伸
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 ダブルセブン編</t>
+  </si>
+  <si>
+    <t>きたうみつな
+佐島勤
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 九校戦編</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 会長選挙編</t>
+  </si>
+  <si>
+    <t>佐島勤
+柚木N'
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 入学編</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 南海騒擾編</t>
+  </si>
+  <si>
+    <t>蒼和伸
+佐島勤
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 古都内乱編</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 四葉継承編</t>
+  </si>
+  <si>
+    <t>佐島勤
+石田可奈
+きたうみつな</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 夏休み編</t>
+  </si>
+  <si>
+    <t>柚木N'
+佐島勤
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 来訪者編</t>
+  </si>
+  <si>
+    <t>佐島勤
+マジコ！
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 横浜騒乱編</t>
+  </si>
+  <si>
+    <t>佐島勤
+石田可奈
+天羽銀</t>
+  </si>
+  <si>
+    <t>魔法科高校の劣等生 追憶編</t>
+  </si>
+  <si>
+    <t>佐島勤
+依河和希
+石田可奈</t>
+  </si>
+  <si>
+    <t>魔都精兵のスレイブ</t>
+  </si>
+  <si>
+    <t>竹村洋平
+タカヒロ</t>
+  </si>
+  <si>
+    <t>黒子のバスケ</t>
+  </si>
+  <si>
+    <t>藤巻忠俊</t>
   </si>
 </sst>
 </file>
@@ -117,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,12 +915,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFA33F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE6B5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB6EE56"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA33F"/>
+        <fgColor rgb="FFFADA5E"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
@@ -172,6 +971,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,7 +1290,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -497,7 +1302,7 @@
     <col min="4" max="4" width="13.140625" customWidth="1" style="2"/>
     <col min="5" max="5" width="14.00390625" customWidth="1" style="2"/>
     <col min="6" max="6" width="40.7109375" customWidth="1" style="1"/>
-    <col min="7" max="7" width="18.28125" customWidth="1" style="3"/>
+    <col min="7" max="7" width="21.28125" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="4">
@@ -534,54 +1339,52 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
+      <c r="C4" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3" t="s">
@@ -595,14 +1398,14 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>999</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>999</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
@@ -616,18 +1419,2739 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2">
+        <v>18</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>19</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2">
+        <v>30</v>
+      </c>
+      <c r="E51" s="2">
+        <v>31</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>19</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>31</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>15</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>11</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2">
+        <v>37</v>
+      </c>
+      <c r="E69" s="2">
+        <v>37</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>19</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" s="2">
+        <v>15</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="2">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2">
+        <v>10</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2">
+        <v>25</v>
+      </c>
+      <c r="E77" s="2">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>11</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2">
+        <v>10</v>
+      </c>
+      <c r="E81" s="2">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>18</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>33</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>22</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2">
+        <v>9</v>
+      </c>
+      <c r="E88" s="2">
+        <v>16</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>10</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2">
+        <v>22</v>
+      </c>
+      <c r="E91" s="2">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2">
+        <v>42</v>
+      </c>
+      <c r="E92" s="2">
+        <v>42</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>6</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>19</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2">
+        <v>17</v>
+      </c>
+      <c r="E95" s="2">
+        <v>18</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7</v>
+      </c>
+      <c r="E96" s="2">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4</v>
+      </c>
+      <c r="E97" s="2">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+      <c r="E98" s="2">
+        <v>8</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2">
+        <v>11</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
+        <v>4</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>14</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2">
+        <v>37</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2">
+        <v>12</v>
+      </c>
+      <c r="E109" s="2">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2">
+        <v>10</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>25</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2">
+        <v>22</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>9</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>38</v>
+      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
+        <v>9</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>27</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <v>19</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2">
+        <v>4</v>
+      </c>
+      <c r="E124" s="2">
+        <v>5</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2">
+        <v>4</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
+        <v>4</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="2">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2">
+        <v>7</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2">
+        <v>30</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
